--- a/data/trans_camb/P1412-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1412-Habitat-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>-0.2757366319386714</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.06326550475881403</v>
+        <v>-0.06326550475881419</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.135836281401174</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.006592188567379736</v>
+        <v>-0.006592188567379823</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7191381569644101</v>
+        <v>-0.8377557929744881</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7424697123495921</v>
+        <v>-0.6606059227230877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.160977784337882</v>
+        <v>-1.28365541651552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.020468127350387</v>
+        <v>-0.9456329797273048</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7094085547141344</v>
+        <v>-0.6927285183250355</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.5850619854597289</v>
+        <v>-0.5341764418477277</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7651263576570301</v>
+        <v>0.7135545738203442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6915348960201535</v>
+        <v>0.7420178677209818</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6381708427066325</v>
+        <v>0.6176222274662043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5958926749824168</v>
+        <v>0.6523111614506596</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4499448551504955</v>
+        <v>0.4448568260141871</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4658643445283268</v>
+        <v>0.51812204068195</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>-0.3505161331928809</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.0804230469366418</v>
+        <v>-0.08042304693664203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2022456719645425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.009815062609003127</v>
+        <v>-0.009815062609003255</v>
       </c>
     </row>
     <row r="8">
@@ -712,23 +712,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.8564067999074539</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.7854972086353841</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.7353992747946058</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.721432848737124</v>
+        <v>-0.694668398723024</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7344559107144583</v>
+        <v>-0.7192755187453661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5611369801943116</v>
+        <v>-0.5605370112942696</v>
       </c>
     </row>
     <row r="9">
@@ -738,23 +734,19 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>4.3806599608576</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>3.867663153168652</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>3.502611123089382</v>
-      </c>
+        <v>4.823292488067288</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>2.229410709991041</v>
+        <v>2.56958997026235</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.378234905903278</v>
+        <v>1.385616515811849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.271035085474325</v>
+        <v>1.540736428151766</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +764,7 @@
         <v>0.01191093835196874</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-0.356081953759523</v>
+        <v>-0.3560819537595232</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.3001285426034406</v>
@@ -784,7 +776,7 @@
         <v>-0.14648621848343</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.3072224965197716</v>
+        <v>-0.3072224965197717</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9459480263632261</v>
+        <v>-0.9802709670779721</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.191900430628122</v>
+        <v>-1.333270840473322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9840542708461408</v>
+        <v>-0.9631093623047984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9279756870099729</v>
+        <v>-0.9562786270522933</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.704107815292526</v>
+        <v>-0.7070599611992202</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9413295923568883</v>
+        <v>-0.8463079765411639</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8694131621592879</v>
+        <v>0.8756588260860163</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3148106234978075</v>
+        <v>0.34723538666735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2747768068181159</v>
+        <v>0.284064055861557</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2573239382466499</v>
+        <v>0.2458028052875595</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3857383809721958</v>
+        <v>0.374935790261978</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1277723365725432</v>
+        <v>0.1285853054088516</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +842,7 @@
         <v>0.01233176244624979</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.3686626473415622</v>
+        <v>-0.3686626473415623</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.4684699757159584</v>
@@ -862,7 +854,7 @@
         <v>-0.1825411109677743</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3828396719474051</v>
+        <v>-0.3828396719474053</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +865,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6369947661240477</v>
+        <v>-0.6374169711176072</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7666442066751155</v>
+        <v>-0.7978820535120743</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8667248409860472</v>
+        <v>-0.8615980171008626</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6303028540220181</v>
+        <v>-0.6332875620121159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7324157452770841</v>
+        <v>-0.7274112494167562</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +891,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.697664175273425</v>
+        <v>1.903675305875</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9922493331627673</v>
+        <v>0.7515128093524753</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.682874373014917</v>
+        <v>2.005612705064707</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9805051749564645</v>
+        <v>1.243271557088948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8794561668256379</v>
+        <v>0.7725127121953766</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4038798417185274</v>
+        <v>0.3185550021182825</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +924,7 @@
         <v>0.498757433143027</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6573588236027743</v>
+        <v>0.657358823602774</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.4887685321132447</v>
@@ -955,22 +947,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.308224702762236</v>
+        <v>-0.3911895848327422</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1845939162101904</v>
+        <v>-0.1776011916090455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.44207502770061</v>
+        <v>-1.441482795195889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.609000553477033</v>
+        <v>-1.740065892430516</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.6364906642493974</v>
+        <v>-0.6751288692191679</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.632426321179717</v>
+        <v>-0.6641532002909891</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +973,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.554318075739504</v>
+        <v>1.519555276357787</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.787402540195629</v>
+        <v>1.762758708571351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4334646499176277</v>
+        <v>0.3660588023776967</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03106219264345056</v>
+        <v>-0.03150795866886628</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7059195207279032</v>
+        <v>0.6756637266905393</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.631697917028742</v>
+        <v>0.6040850690680498</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1025,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5109310628620083</v>
+        <v>-0.5926211644190355</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3606268529274005</v>
+        <v>-0.3934569940634157</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8664980953831787</v>
+        <v>-0.8758609579102821</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.924089325604035</v>
+        <v>-0.9188722517654898</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5871015963979077</v>
+        <v>-0.5819997182509585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5592124481207242</v>
+        <v>-0.5944836912177539</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1051,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.533960045764449</v>
+        <v>7.312361622847704</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>9.160725658302923</v>
+        <v>9.409475580780828</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.016339121789396</v>
+        <v>0.9638977409057137</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2033422644971505</v>
+        <v>0.2421782507581315</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.622711397116953</v>
+        <v>1.243879101864135</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.248397760719672</v>
+        <v>1.134491301587063</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1090,7 @@
         <v>0.3126961629290064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3436821421031101</v>
+        <v>0.3436821421031099</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1351893923740891</v>
@@ -1115,22 +1107,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.764482697647318</v>
+        <v>-0.7024006167683285</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.06889656755063717</v>
+        <v>0.0009455902700293398</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2975195373289494</v>
+        <v>-0.3100393209007756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2431674133552501</v>
+        <v>-0.2722811518474142</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3000417031446871</v>
+        <v>-0.3045596629266459</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06089768509104219</v>
+        <v>0.02541947176743498</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1133,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5180790112245245</v>
+        <v>0.5715363964863334</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.534080912705823</v>
+        <v>1.607671238595321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.032572577715518</v>
+        <v>0.9904303952328655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.865620118258586</v>
+        <v>0.8789141238904699</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6451162925111051</v>
+        <v>0.6156327318601698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9949776475268922</v>
+        <v>0.9859799228702606</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1168,7 @@
         <v>0.7775536846782719</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.8546037579970757</v>
+        <v>0.8546037579970752</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2895034534462947</v>
@@ -1193,22 +1185,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8494002357520386</v>
+        <v>-0.8172280880034064</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2624484516113441</v>
+        <v>-0.1372344136785082</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6309799837666281</v>
+        <v>-0.5964185367898753</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4321934961503691</v>
+        <v>-0.4598537389868199</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4781510091300781</v>
+        <v>-0.4906320127471686</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01059481834203677</v>
+        <v>-0.02675702011683077</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1211,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.509950569008991</v>
+        <v>3.103060467402985</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.024386704513644</v>
+        <v>7.950662477386985</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7.608136139048399</v>
+        <v>8.22484852545182</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6.471367073518791</v>
+        <v>7.791145527887926</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.71970577858279</v>
+        <v>2.430019551150486</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.645863166607276</v>
+        <v>3.404406589825474</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1256,7 @@
         <v>-0.03068744711964928</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.05503773529656189</v>
+        <v>0.0550377352965618</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1267,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3644151434448497</v>
+        <v>-0.3755916408915214</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1904150240862809</v>
+        <v>-0.1813826461119317</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5246995822764048</v>
+        <v>-0.5611279281173182</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5125158476836567</v>
+        <v>-0.4720450488069407</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3219932431355966</v>
+        <v>-0.3343159367920724</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2326244288880947</v>
+        <v>-0.2252117238322332</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1293,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5001585504999077</v>
+        <v>0.4737844289261953</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6630088523029487</v>
+        <v>0.6797203796681611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2444429109129335</v>
+        <v>0.2014882530989862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1866618159744635</v>
+        <v>0.1756356653384053</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2354839624745741</v>
+        <v>0.2171317576869706</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3080533650566308</v>
+        <v>0.3129157879672007</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1334,7 @@
         <v>-0.04485998267444583</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08045608493329501</v>
+        <v>0.08045608493329488</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1345,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4199204903964374</v>
+        <v>-0.4222661110806235</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2356284329213242</v>
+        <v>-0.2266428036438132</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5867864025515792</v>
+        <v>-0.6086078636185468</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5494492697527887</v>
+        <v>-0.5088418743119277</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3870548009858029</v>
+        <v>-0.4014596512690302</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2782647634005576</v>
+        <v>-0.2603167090740542</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1371,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.048421439698183</v>
+        <v>0.9892748267945826</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.451239523043327</v>
+        <v>1.486297491120385</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5089917843938881</v>
+        <v>0.4227548013569031</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3641986685433899</v>
+        <v>0.3568601278747416</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4444249836719687</v>
+        <v>0.4130917343362009</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5830351823959093</v>
+        <v>0.6017892572897474</v>
       </c>
     </row>
     <row r="34">
